--- a/Replication Package/Code and Data/(3) Core Results/Decompositions/Output Data Python (New Model)/remove_all.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/Decompositions/Output Data Python (New Model)/remove_all.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>gcu</t>
+          <t>cu</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -545,10 +545,20 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>excess_demand_simul</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>excess_demand_baseline</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>gscpi</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>magpty</t>
         </is>
@@ -613,15 +623,21 @@
         <v>1.196216736133376</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.09327418766886808</v>
+        <v>0.04983734759693073</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.819108862458768</v>
+        <v>-0.1085213692111502</v>
       </c>
       <c r="V2" t="n">
+        <v>-0.1085213692111502</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.1085213692111502</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.4664039581587493</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>1.128416530824383</v>
       </c>
     </row>
@@ -684,15 +700,21 @@
         <v>1.170376301040833</v>
       </c>
       <c r="T3" t="n">
-        <v>-5.119500265224985</v>
+        <v>0.03383990835209155</v>
       </c>
       <c r="U3" t="n">
-        <v>-4.807951322152864</v>
+        <v>-0.09098396086582916</v>
       </c>
       <c r="V3" t="n">
+        <v>-0.09098396086582916</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.09098396086582916</v>
+      </c>
+      <c r="X3" t="n">
         <v>0.2929262229925918</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>1.512595805813133</v>
       </c>
     </row>
@@ -755,15 +777,21 @@
         <v>1.218581081081081</v>
       </c>
       <c r="T4" t="n">
-        <v>-3.894031741574366</v>
+        <v>0.02047929813409821</v>
       </c>
       <c r="U4" t="n">
-        <v>-4.802033902115962</v>
+        <v>-0.07805013764303048</v>
       </c>
       <c r="V4" t="n">
+        <v>-0.07805013764303048</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.07805013764303048</v>
+      </c>
+      <c r="X4" t="n">
         <v>-0.3470782337164486</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>1.871596231659467</v>
       </c>
     </row>
@@ -826,15 +854,21 @@
         <v>1.203850700895119</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.493109855985253</v>
+        <v>0.01359484608495071</v>
       </c>
       <c r="U5" t="n">
-        <v>-4.797978741841733</v>
+        <v>-0.06752585519471843</v>
       </c>
       <c r="V5" t="n">
+        <v>-0.06752585519471843</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.06752585519471843</v>
+      </c>
+      <c r="X5" t="n">
         <v>-0.1832859707783361</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>1.660541678943162</v>
       </c>
     </row>
@@ -846,19 +880,19 @@
         <v>2.89018598441686</v>
       </c>
       <c r="C6" t="n">
-        <v>3.063997709744458</v>
+        <v>2.986472699852389</v>
       </c>
       <c r="D6" t="n">
-        <v>3.063997709744458</v>
+        <v>2.986472699852389</v>
       </c>
       <c r="E6" t="n">
         <v>3.269114943456231</v>
       </c>
       <c r="F6" t="n">
-        <v>2.474295691641671</v>
+        <v>2.445723943116719</v>
       </c>
       <c r="G6" t="n">
-        <v>3.772925235385979</v>
+        <v>3.471513532126307</v>
       </c>
       <c r="H6" t="n">
         <v>4.666666507720947</v>
@@ -867,25 +901,25 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>6.675019739674919</v>
+        <v>4.134383672306547</v>
       </c>
       <c r="K6" t="n">
         <v>1.70378442</v>
       </c>
       <c r="L6" t="n">
-        <v>1.575524543771724</v>
+        <v>1.573372359954168</v>
       </c>
       <c r="M6" t="n">
-        <v>1.673344580463033</v>
+        <v>1.650640566054859</v>
       </c>
       <c r="N6" t="n">
         <v>1.7145255</v>
       </c>
       <c r="O6" t="n">
-        <v>1.600379456770455</v>
+        <v>1.599511695076298</v>
       </c>
       <c r="P6" t="n">
-        <v>1.639820549148071</v>
+        <v>1.630666278101932</v>
       </c>
       <c r="Q6" t="n">
         <v>12.01264099037156</v>
@@ -897,15 +931,21 @@
         <v>1.181126331811263</v>
       </c>
       <c r="T6" t="n">
-        <v>-3.205412666923735</v>
+        <v>0.003097988771499527</v>
       </c>
       <c r="U6" t="n">
-        <v>-4.790911058733882</v>
+        <v>-0.05473029219889014</v>
       </c>
       <c r="V6" t="n">
+        <v>0.01141534297403179</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.01141534297403179</v>
+      </c>
+      <c r="X6" t="n">
         <v>0.09742270972776415</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>1.729278982489024</v>
       </c>
     </row>
@@ -917,19 +957,19 @@
         <v>4.011494939246774</v>
       </c>
       <c r="C7" t="n">
-        <v>2.660058781521315</v>
+        <v>2.644029056917208</v>
       </c>
       <c r="D7" t="n">
-        <v>2.68275335477694</v>
+        <v>2.681898241323125</v>
       </c>
       <c r="E7" t="n">
         <v>-0.7616985697598722</v>
       </c>
       <c r="F7" t="n">
-        <v>2.260757364259179</v>
+        <v>2.240012343091505</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.8610308717646538</v>
+        <v>-0.2649063089785774</v>
       </c>
       <c r="H7" t="n">
         <v>12</v>
@@ -938,25 +978,25 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>11.73207911941899</v>
+        <v>16.75034083021996</v>
       </c>
       <c r="K7" t="n">
         <v>0.98707392</v>
       </c>
       <c r="L7" t="n">
-        <v>1.659057799701086</v>
+        <v>1.653119882155186</v>
       </c>
       <c r="M7" t="n">
-        <v>1.622770706495726</v>
+        <v>1.621517967464725</v>
       </c>
       <c r="N7" t="n">
         <v>1.26977517</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62534193112474</v>
+        <v>1.623687294402315</v>
       </c>
       <c r="P7" t="n">
-        <v>1.577097966929351</v>
+        <v>1.58439443092401</v>
       </c>
       <c r="Q7" t="n">
         <v>-41.83859518743878</v>
@@ -968,15 +1008,21 @@
         <v>1.068356867779204</v>
       </c>
       <c r="T7" t="n">
-        <v>-7.191136656603447</v>
+        <v>-0.01632934159173205</v>
       </c>
       <c r="U7" t="n">
-        <v>-4.772475284455856</v>
+        <v>-0.03173426093010878</v>
       </c>
       <c r="V7" t="n">
+        <v>0.02166938104819494</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.02174827518237343</v>
+      </c>
+      <c r="X7" t="n">
         <v>1.27602885000369</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
         <v>1.537662139982121</v>
       </c>
     </row>
@@ -988,19 +1034,19 @@
         <v>1.422982646210968</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0213340879648</v>
+        <v>3.156709071877107</v>
       </c>
       <c r="D8" t="n">
-        <v>1.455390892462773</v>
+        <v>1.486408610090085</v>
       </c>
       <c r="E8" t="n">
         <v>-1.767392365014331</v>
       </c>
       <c r="F8" t="n">
-        <v>2.435246468857039</v>
+        <v>2.473458605072768</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0877007684786715</v>
+        <v>0.07000761014104331</v>
       </c>
       <c r="H8" t="n">
         <v>14</v>
@@ -1009,25 +1055,25 @@
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>9.588970502731973</v>
+        <v>12.79881518197517</v>
       </c>
       <c r="K8" t="n">
         <v>0.51275711</v>
       </c>
       <c r="L8" t="n">
-        <v>1.75643101282626</v>
+        <v>1.754931607098181</v>
       </c>
       <c r="M8" t="n">
-        <v>1.142926183647703</v>
+        <v>1.233422454505567</v>
       </c>
       <c r="N8" t="n">
         <v>1.23186673</v>
       </c>
       <c r="O8" t="n">
-        <v>1.635488556694179</v>
+        <v>1.635363385861673</v>
       </c>
       <c r="P8" t="n">
-        <v>1.471541942582475</v>
+        <v>1.491993101741177</v>
       </c>
       <c r="Q8" t="n">
         <v>-31.49878239638355</v>
@@ -1039,15 +1085,21 @@
         <v>0.2659460512221248</v>
       </c>
       <c r="T8" t="n">
-        <v>-53.22072952134214</v>
+        <v>-0.1471797616823544</v>
       </c>
       <c r="U8" t="n">
-        <v>-4.637097484124242</v>
+        <v>0.104098170574666</v>
       </c>
       <c r="V8" t="n">
+        <v>0.1308111235982077</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.127299531866532</v>
+      </c>
+      <c r="X8" t="n">
         <v>2.650413416928139</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>3.336048444763229</v>
       </c>
     </row>
@@ -1059,19 +1111,19 @@
         <v>2.266295014270625</v>
       </c>
       <c r="C9" t="n">
-        <v>3.019737691465211</v>
+        <v>2.965565200596024</v>
       </c>
       <c r="D9" t="n">
-        <v>2.247239031746194</v>
+        <v>2.312579328959754</v>
       </c>
       <c r="E9" t="n">
         <v>4.708621821546899</v>
       </c>
       <c r="F9" t="n">
-        <v>2.456229100755927</v>
+        <v>2.448121699176823</v>
       </c>
       <c r="G9" t="n">
-        <v>4.424047150802374</v>
+        <v>3.876071545275222</v>
       </c>
       <c r="H9" t="n">
         <v>25.33333396911621</v>
@@ -1080,25 +1132,25 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>21.58532461838503</v>
+        <v>16.01338639900145</v>
       </c>
       <c r="K9" t="n">
         <v>1.5827644</v>
       </c>
       <c r="L9" t="n">
-        <v>1.824918008142086</v>
+        <v>1.82872542512934</v>
       </c>
       <c r="M9" t="n">
-        <v>1.481092328565115</v>
+        <v>1.483101355570453</v>
       </c>
       <c r="N9" t="n">
         <v>1.35099923</v>
       </c>
       <c r="O9" t="n">
-        <v>1.655533730232467</v>
+        <v>1.655685981912143</v>
       </c>
       <c r="P9" t="n">
-        <v>1.591917283769665</v>
+        <v>1.586132435805995</v>
       </c>
       <c r="Q9" t="n">
         <v>18.55721009566542</v>
@@ -1110,15 +1162,21 @@
         <v>0.4567430025445293</v>
       </c>
       <c r="T9" t="n">
-        <v>37.57733083758374</v>
+        <v>-0.05272372280058346</v>
       </c>
       <c r="U9" t="n">
-        <v>-4.738912226113569</v>
+        <v>0.004751989929596689</v>
       </c>
       <c r="V9" t="n">
+        <v>0.02999649581752184</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.02549544645810187</v>
+      </c>
+      <c r="X9" t="n">
         <v>1.570883874478723</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>3.940007692958902</v>
       </c>
     </row>
@@ -1130,19 +1188,19 @@
         <v>3.375547458346162</v>
       </c>
       <c r="C10" t="n">
-        <v>2.959685456254943</v>
+        <v>2.981371110214401</v>
       </c>
       <c r="D10" t="n">
-        <v>3.139811021247704</v>
+        <v>3.14394760202816</v>
       </c>
       <c r="E10" t="n">
         <v>3.073967747275219</v>
       </c>
       <c r="F10" t="n">
-        <v>2.448060391753461</v>
+        <v>2.452214361791488</v>
       </c>
       <c r="G10" t="n">
-        <v>2.971486362465133</v>
+        <v>3.357129115416063</v>
       </c>
       <c r="H10" t="n">
         <v>9.666666984558105</v>
@@ -1151,25 +1209,25 @@
         <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>6.15142737601154</v>
+        <v>7.261067465036381</v>
       </c>
       <c r="K10" t="n">
         <v>1.64952129</v>
       </c>
       <c r="L10" t="n">
-        <v>1.817560695720868</v>
+        <v>1.817512783925505</v>
       </c>
       <c r="M10" t="n">
-        <v>2.005381695100724</v>
+        <v>1.965506508536861</v>
       </c>
       <c r="N10" t="n">
         <v>1.41717038</v>
       </c>
       <c r="O10" t="n">
-        <v>1.672164983944475</v>
+        <v>1.671791858674559</v>
       </c>
       <c r="P10" t="n">
-        <v>1.670912946349907</v>
+        <v>1.672619806896836</v>
       </c>
       <c r="Q10" t="n">
         <v>14.49319216493947</v>
@@ -1181,15 +1239,21 @@
         <v>0.6294798750229738</v>
       </c>
       <c r="T10" t="n">
-        <v>9.31128856630643</v>
+        <v>-0.02930731673650933</v>
       </c>
       <c r="U10" t="n">
-        <v>-4.765380890630269</v>
+        <v>-0.01888149533613426</v>
       </c>
       <c r="V10" t="n">
+        <v>0.003708179713147075</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.852804213863806e-05</v>
+      </c>
+      <c r="X10" t="n">
         <v>0.8410196452352154</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
         <v>3.574689640047302</v>
       </c>
     </row>
@@ -1201,19 +1265,19 @@
         <v>4.733783058800967</v>
       </c>
       <c r="C11" t="n">
-        <v>3.026119682229472</v>
+        <v>3.056074040139394</v>
       </c>
       <c r="D11" t="n">
-        <v>4.685971915471208</v>
+        <v>4.769251046133015</v>
       </c>
       <c r="E11" t="n">
         <v>4.370864955330944</v>
       </c>
       <c r="F11" t="n">
-        <v>2.522490077058986</v>
+        <v>2.549165710470705</v>
       </c>
       <c r="G11" t="n">
-        <v>5.642684731332617</v>
+        <v>5.69154237085891</v>
       </c>
       <c r="H11" t="n">
         <v>11.66666698455811</v>
@@ -1222,25 +1286,25 @@
         <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>5.871188746126693</v>
+        <v>9.498894123785508</v>
       </c>
       <c r="K11" t="n">
         <v>1.51383809</v>
       </c>
       <c r="L11" t="n">
-        <v>1.833806197788572</v>
+        <v>1.836004883695868</v>
       </c>
       <c r="M11" t="n">
-        <v>2.175852300107213</v>
+        <v>2.218680642165779</v>
       </c>
       <c r="N11" t="n">
         <v>1.4974036</v>
       </c>
       <c r="O11" t="n">
-        <v>1.689563476115287</v>
+        <v>1.690283860279174</v>
       </c>
       <c r="P11" t="n">
-        <v>1.755352861694985</v>
+        <v>1.769048284432477</v>
       </c>
       <c r="Q11" t="n">
         <v>35.50855768145307</v>
@@ -1252,15 +1316,21 @@
         <v>0.7817085427135678</v>
       </c>
       <c r="T11" t="n">
-        <v>3.283231176792256</v>
+        <v>-0.02099259232997752</v>
       </c>
       <c r="U11" t="n">
-        <v>-4.779211753990309</v>
+        <v>-0.0298617815314195</v>
       </c>
       <c r="V11" t="n">
+        <v>-0.006173741815635125</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.005594780056057402</v>
+      </c>
+      <c r="X11" t="n">
         <v>1.812571061195705</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>3.577612786995887</v>
       </c>
     </row>
@@ -1272,19 +1342,19 @@
         <v>3.308082259468748</v>
       </c>
       <c r="C12" t="n">
-        <v>3.02337621153534</v>
+        <v>3.029014389780452</v>
       </c>
       <c r="D12" t="n">
-        <v>3.051578431063327</v>
+        <v>3.623297683991042</v>
       </c>
       <c r="E12" t="n">
         <v>8.433977636784817</v>
       </c>
       <c r="F12" t="n">
-        <v>2.535186510084761</v>
+        <v>2.543720941344842</v>
       </c>
       <c r="G12" t="n">
-        <v>5.644742881575044</v>
+        <v>5.840943416664348</v>
       </c>
       <c r="H12" t="n">
         <v>48.33333206176758</v>
@@ -1293,25 +1363,25 @@
         <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>29.86969587718812</v>
+        <v>30.34898733752184</v>
       </c>
       <c r="K12" t="n">
         <v>2.05518859</v>
       </c>
       <c r="L12" t="n">
-        <v>1.879500365258574</v>
+        <v>1.883619480471105</v>
       </c>
       <c r="M12" t="n">
-        <v>2.58275676544662</v>
+        <v>2.619004116896199</v>
       </c>
       <c r="N12" t="n">
         <v>1.59628851</v>
       </c>
       <c r="O12" t="n">
-        <v>1.707757297425403</v>
+        <v>1.708732693401412</v>
       </c>
       <c r="P12" t="n">
-        <v>1.887642982136431</v>
+        <v>1.899391520229118</v>
       </c>
       <c r="Q12" t="n">
         <v>4.392433825484932</v>
@@ -1323,15 +1393,21 @@
         <v>1.024313230186296</v>
       </c>
       <c r="T12" t="n">
-        <v>8.828900268925466</v>
+        <v>0.0007249708631997254</v>
       </c>
       <c r="U12" t="n">
-        <v>-4.813314345583091</v>
+        <v>-0.06050147960863761</v>
       </c>
       <c r="V12" t="n">
+        <v>-0.02788496046681654</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.02600798774399493</v>
+      </c>
+      <c r="X12" t="n">
         <v>2.786346790399654</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="n">
         <v>3.5548188871807</v>
       </c>
     </row>
@@ -1343,19 +1419,19 @@
         <v>6.265024225182358</v>
       </c>
       <c r="C13" t="n">
-        <v>3.033455633517623</v>
+        <v>3.065165149019946</v>
       </c>
       <c r="D13" t="n">
-        <v>4.786021202428842</v>
+        <v>4.635069569002582</v>
       </c>
       <c r="E13" t="n">
         <v>5.09604073699208</v>
       </c>
       <c r="F13" t="n">
-        <v>2.548103746395516</v>
+        <v>2.566967637778614</v>
       </c>
       <c r="G13" t="n">
-        <v>5.179151432678202</v>
+        <v>5.470522160274122</v>
       </c>
       <c r="H13" t="n">
         <v>22.33333396911621</v>
@@ -1364,25 +1440,25 @@
         <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>21.84513808783346</v>
+        <v>21.7664823413311</v>
       </c>
       <c r="K13" t="n">
         <v>2.68413713</v>
       </c>
       <c r="L13" t="n">
-        <v>1.905305162682475</v>
+        <v>1.909194296009508</v>
       </c>
       <c r="M13" t="n">
-        <v>2.638982522946429</v>
+        <v>2.706604821426906</v>
       </c>
       <c r="N13" t="n">
         <v>1.64278592</v>
       </c>
       <c r="O13" t="n">
-        <v>1.724796353629992</v>
+        <v>1.725936962496276</v>
       </c>
       <c r="P13" t="n">
-        <v>1.946752217396281</v>
+        <v>1.969362523401777</v>
       </c>
       <c r="Q13" t="n">
         <v>17.10368750618429</v>
@@ -1394,15 +1470,21 @@
         <v>1.324590163934426</v>
       </c>
       <c r="T13" t="n">
-        <v>3.501804111348505</v>
+        <v>0.009120533922375385</v>
       </c>
       <c r="U13" t="n">
-        <v>-4.826443893376199</v>
+        <v>-0.07019994069958724</v>
       </c>
       <c r="V13" t="n">
+        <v>-0.03572851138325106</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.0304102554248713</v>
+      </c>
+      <c r="X13" t="n">
         <v>3.143664257149126</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Y13" t="n">
         <v>2.891726937267691</v>
       </c>
     </row>
@@ -1414,19 +1496,19 @@
         <v>5.102452537774838</v>
       </c>
       <c r="C14" t="n">
-        <v>3.056571623202613</v>
+        <v>3.084027326437236</v>
       </c>
       <c r="D14" t="n">
-        <v>5.154054525646765</v>
+        <v>5.351065885049699</v>
       </c>
       <c r="E14" t="n">
         <v>9.888864910520567</v>
       </c>
       <c r="F14" t="n">
-        <v>2.578411570424113</v>
+        <v>2.604368775888187</v>
       </c>
       <c r="G14" t="n">
-        <v>8.332069175891752</v>
+        <v>8.39682451050151</v>
       </c>
       <c r="H14" t="n">
         <v>22</v>
@@ -1435,25 +1517,25 @@
         <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>20.07087259791499</v>
+        <v>21.20429605383146</v>
       </c>
       <c r="K14" t="n">
         <v>2.62030861</v>
       </c>
       <c r="L14" t="n">
-        <v>1.917033283482857</v>
+        <v>1.922846207454783</v>
       </c>
       <c r="M14" t="n">
-        <v>2.917261858019484</v>
+        <v>2.975619533785916</v>
       </c>
       <c r="N14" t="n">
         <v>1.75897506</v>
       </c>
       <c r="O14" t="n">
-        <v>1.742369841182772</v>
+        <v>1.744313598695253</v>
       </c>
       <c r="P14" t="n">
-        <v>2.102298075123608</v>
+        <v>2.124780261450438</v>
       </c>
       <c r="Q14" t="n">
         <v>28.67942852294387</v>
@@ -1465,15 +1547,21 @@
         <v>1.683044881196832</v>
       </c>
       <c r="T14" t="n">
-        <v>4.278648442135946</v>
+        <v>0.01933156917655629</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.846875781021601</v>
+        <v>-0.08685919127319508</v>
       </c>
       <c r="V14" t="n">
+        <v>-0.04496775154384469</v>
+      </c>
+      <c r="W14" t="n">
+        <v>-0.03482696475469549</v>
+      </c>
+      <c r="X14" t="n">
         <v>4.104742762744237</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Y14" t="n">
         <v>2.972223430301435</v>
       </c>
     </row>
@@ -1485,19 +1573,19 @@
         <v>5.038183941191221</v>
       </c>
       <c r="C15" t="n">
-        <v>3.074987420826355</v>
+        <v>3.102888129744602</v>
       </c>
       <c r="D15" t="n">
-        <v>5.752346961853759</v>
+        <v>5.992103053940109</v>
       </c>
       <c r="E15" t="n">
         <v>9.269204386336938</v>
       </c>
       <c r="F15" t="n">
-        <v>2.59079450760807</v>
+        <v>2.612115215677923</v>
       </c>
       <c r="G15" t="n">
-        <v>9.689150780674019</v>
+        <v>9.900676443224841</v>
       </c>
       <c r="H15" t="n">
         <v>19.66666603088379</v>
@@ -1506,25 +1594,25 @@
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>21.17182422945953</v>
+        <v>22.242534545903</v>
       </c>
       <c r="K15" t="n">
         <v>3.05769883</v>
       </c>
       <c r="L15" t="n">
-        <v>1.934140633099093</v>
+        <v>1.94074238609432</v>
       </c>
       <c r="M15" t="n">
-        <v>3.560826010827981</v>
+        <v>3.604711091070687</v>
       </c>
       <c r="N15" t="n">
         <v>1.94721641</v>
       </c>
       <c r="O15" t="n">
-        <v>1.759854215236559</v>
+        <v>1.762217206470525</v>
       </c>
       <c r="P15" t="n">
-        <v>2.320890683920484</v>
+        <v>2.344733986517406</v>
       </c>
       <c r="Q15" t="n">
         <v>40.09111468532782</v>
@@ -1536,15 +1624,21 @@
         <v>1.872200895713372</v>
       </c>
       <c r="T15" t="n">
-        <v>1.320002770348694</v>
+        <v>0.0221717436853455</v>
       </c>
       <c r="U15" t="n">
-        <v>-4.863051459681091</v>
+        <v>-0.09908871752493198</v>
       </c>
       <c r="V15" t="n">
+        <v>-0.04690264256354215</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.03077909161387904</v>
+      </c>
+      <c r="X15" t="n">
         <v>3.017003504476579</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Y15" t="n">
         <v>2.250584675231826</v>
       </c>
     </row>
@@ -1556,19 +1650,19 @@
         <v>5.75549498083987</v>
       </c>
       <c r="C16" t="n">
-        <v>3.097485369400378</v>
+        <v>3.132441391909627</v>
       </c>
       <c r="D16" t="n">
-        <v>5.809621549778978</v>
+        <v>5.88770697675016</v>
       </c>
       <c r="E16" t="n">
         <v>9.970973166629804</v>
       </c>
       <c r="F16" t="n">
-        <v>2.610790261193558</v>
+        <v>2.639839429380229</v>
       </c>
       <c r="G16" t="n">
-        <v>9.524404161812692</v>
+        <v>9.741312558054574</v>
       </c>
       <c r="H16" t="n">
         <v>32.66666793823242</v>
@@ -1577,25 +1671,25 @@
         <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>27.21708107673818</v>
+        <v>28.09788040369346</v>
       </c>
       <c r="K16" t="n">
         <v>4.22671337</v>
       </c>
       <c r="L16" t="n">
-        <v>1.956244564338711</v>
+        <v>1.963559144229778</v>
       </c>
       <c r="M16" t="n">
-        <v>3.941656099057644</v>
+        <v>4.009290449505922</v>
       </c>
       <c r="N16" t="n">
         <v>2.40126382</v>
       </c>
       <c r="O16" t="n">
-        <v>1.777138853229877</v>
+        <v>1.780044286827238</v>
       </c>
       <c r="P16" t="n">
-        <v>2.484052237611872</v>
+        <v>2.514523770441072</v>
       </c>
       <c r="Q16" t="n">
         <v>30.21818142720733</v>
@@ -1607,15 +1701,21 @@
         <v>1.909121395036888</v>
       </c>
       <c r="T16" t="n">
-        <v>1.522993126223682</v>
+        <v>0.02543743130201781</v>
       </c>
       <c r="U16" t="n">
-        <v>-4.880354700123468</v>
+        <v>-0.1121312753026862</v>
       </c>
       <c r="V16" t="n">
+        <v>-0.04935375377270645</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-0.02787615318839265</v>
+      </c>
+      <c r="X16" t="n">
         <v>2.79870693437819</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Y16" t="n">
         <v>-0.219016638976699</v>
       </c>
     </row>
@@ -1627,19 +1727,19 @@
         <v>4.648212409207275</v>
       </c>
       <c r="C17" t="n">
-        <v>3.117828564643696</v>
+        <v>3.152264260150612</v>
       </c>
       <c r="D17" t="n">
-        <v>4.906247742980721</v>
+        <v>5.163050389767069</v>
       </c>
       <c r="E17" t="n">
         <v>2.450338900423787</v>
       </c>
       <c r="F17" t="n">
-        <v>2.632736890397284</v>
+        <v>2.663932595120976</v>
       </c>
       <c r="G17" t="n">
-        <v>2.116962184505387</v>
+        <v>2.39407137153823</v>
       </c>
       <c r="H17" t="n">
         <v>18</v>
@@ -1648,25 +1748,25 @@
         <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>18.63255475790504</v>
+        <v>20.45377905389774</v>
       </c>
       <c r="K17" t="n">
         <v>4.17914969</v>
       </c>
       <c r="L17" t="n">
-        <v>1.976433958964912</v>
+        <v>1.985470633271186</v>
       </c>
       <c r="M17" t="n">
-        <v>3.534653124756608</v>
+        <v>3.613152087650594</v>
       </c>
       <c r="N17" t="n">
         <v>2.36598926</v>
       </c>
       <c r="O17" t="n">
-        <v>1.79471355602653</v>
+        <v>1.798356382064141</v>
       </c>
       <c r="P17" t="n">
-        <v>2.402930955765044</v>
+        <v>2.438618619779124</v>
       </c>
       <c r="Q17" t="n">
         <v>-46.79661489942228</v>
@@ -1678,15 +1778,21 @@
         <v>1.852467443454421</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.214402907130108</v>
+        <v>0.02179688598213175</v>
       </c>
       <c r="U17" t="n">
-        <v>-4.882414805952292</v>
+        <v>-0.1098773244121425</v>
       </c>
       <c r="V17" t="n">
+        <v>-0.04540976798859742</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-0.02056173744951462</v>
+      </c>
+      <c r="X17" t="n">
         <v>1.379070653548736</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Y17" t="n">
         <v>-0.8560581919365262</v>
       </c>
     </row>
@@ -1698,19 +1804,19 @@
         <v>4.594817594852429</v>
       </c>
       <c r="C18" t="n">
-        <v>3.136149436489741</v>
+        <v>3.172469434444428</v>
       </c>
       <c r="D18" t="n">
-        <v>4.574022830805896</v>
+        <v>4.818127207084889</v>
       </c>
       <c r="E18" t="n">
         <v>3.292553462997105</v>
       </c>
       <c r="F18" t="n">
-        <v>2.649541969289884</v>
+        <v>2.681003442174069</v>
       </c>
       <c r="G18" t="n">
-        <v>4.712559036484948</v>
+        <v>4.977062661420195</v>
       </c>
       <c r="H18" t="n">
         <v>23.66666603088379</v>
@@ -1719,25 +1825,25 @@
         <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>23.94198039227218</v>
+        <v>25.2334257974624</v>
       </c>
       <c r="K18" t="n">
         <v>2.86811918</v>
       </c>
       <c r="L18" t="n">
-        <v>1.992907926561096</v>
+        <v>2.002804249712574</v>
       </c>
       <c r="M18" t="n">
-        <v>2.701523845719474</v>
+        <v>2.791264540665404</v>
       </c>
       <c r="N18" t="n">
         <v>2.21937769</v>
       </c>
       <c r="O18" t="n">
-        <v>1.812220895987445</v>
+        <v>1.816444620087124</v>
       </c>
       <c r="P18" t="n">
-        <v>2.356614523441314</v>
+        <v>2.39788810534662</v>
       </c>
       <c r="Q18" t="n">
         <v>-16.02695231088691</v>
@@ -1749,15 +1855,21 @@
         <v>1.825654008438819</v>
       </c>
       <c r="T18" t="n">
-        <v>-3.578556589685178</v>
+        <v>0.01246862472386223</v>
       </c>
       <c r="U18" t="n">
-        <v>-4.876782449965692</v>
+        <v>-0.1002170725125975</v>
       </c>
       <c r="V18" t="n">
+        <v>-0.0362656027560222</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.009007085136554238</v>
+      </c>
+      <c r="X18" t="n">
         <v>1.180187139258738</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Y18" t="n">
         <v>-0.2096032942362047</v>
       </c>
     </row>
@@ -1769,19 +1881,19 @@
         <v>4.793497920448075</v>
       </c>
       <c r="C19" t="n">
-        <v>3.156384254119156</v>
+        <v>3.194338981160877</v>
       </c>
       <c r="D19" t="n">
-        <v>4.574731914166477</v>
+        <v>4.884270427277159</v>
       </c>
       <c r="E19" t="n">
         <v>3.752370235210378</v>
       </c>
       <c r="F19" t="n">
-        <v>2.670430665888512</v>
+        <v>2.705759555802044</v>
       </c>
       <c r="G19" t="n">
-        <v>3.852885053568864</v>
+        <v>4.181742370894977</v>
       </c>
       <c r="H19" t="n">
         <v>21.5</v>
@@ -1790,25 +1902,25 @@
         <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>18.84298984964137</v>
+        <v>20.31033687947338</v>
       </c>
       <c r="K19" t="n">
         <v>2.07325087</v>
       </c>
       <c r="L19" t="n">
-        <v>2.010181686856304</v>
+        <v>2.020967590397912</v>
       </c>
       <c r="M19" t="n">
-        <v>2.848075974006342</v>
+        <v>2.944961390711116</v>
       </c>
       <c r="N19" t="n">
         <v>2.25862414</v>
       </c>
       <c r="O19" t="n">
-        <v>1.82975457861463</v>
+        <v>1.83465203129759</v>
       </c>
       <c r="P19" t="n">
-        <v>2.415663592810867</v>
+        <v>2.463276945846903</v>
       </c>
       <c r="Q19" t="n">
         <v>-13.55379954518234</v>
@@ -1820,15 +1932,21 @@
         <v>1.733470719560364</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.302015248182187</v>
+        <v>0.008992084701161085</v>
       </c>
       <c r="U19" t="n">
-        <v>-4.876178618056888</v>
+        <v>-0.09574139239785673</v>
       </c>
       <c r="V19" t="n">
+        <v>-0.03307889956140464</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-0.003344628117466719</v>
+      </c>
+      <c r="X19" t="n">
         <v>-0.1313564579856536</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Y19" t="n">
         <v>-0.7746714240972175</v>
       </c>
     </row>
@@ -1840,19 +1958,19 @@
         <v>3.992547183212025</v>
       </c>
       <c r="C20" t="n">
-        <v>3.176402319443963</v>
+        <v>3.214995511240501</v>
       </c>
       <c r="D20" t="n">
-        <v>4.36201495080294</v>
+        <v>4.661428937491749</v>
       </c>
       <c r="E20" t="n">
         <v>2.685393864435426</v>
       </c>
       <c r="F20" t="n">
-        <v>2.690469423006118</v>
+        <v>2.726541505509848</v>
       </c>
       <c r="G20" t="n">
-        <v>3.348465181915543</v>
+        <v>3.799309081415556</v>
       </c>
       <c r="H20" t="n">
         <v>14</v>
@@ -1861,25 +1979,25 @@
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>15.4213946016042</v>
+        <v>18.14747006296136</v>
       </c>
       <c r="K20" t="n">
         <v>1.36626254</v>
       </c>
       <c r="L20" t="n">
-        <v>2.02946300362502</v>
+        <v>2.041381132066548</v>
       </c>
       <c r="M20" t="n">
-        <v>2.780693184199905</v>
+        <v>2.900747554491758</v>
       </c>
       <c r="N20" t="n">
         <v>1.75489679</v>
       </c>
       <c r="O20" t="n">
-        <v>1.84740962274725</v>
+        <v>1.853006568701308</v>
       </c>
       <c r="P20" t="n">
-        <v>2.399593629120584</v>
+        <v>2.457614514426512</v>
       </c>
       <c r="Q20" t="n">
         <v>-13.95488187256424</v>
@@ -1891,15 +2009,21 @@
         <v>1.642953929539295</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.25184742428992</v>
+        <v>0.005744859889104281</v>
       </c>
       <c r="U20" t="n">
-        <v>-4.873219706901331</v>
+        <v>-0.08905033559989128</v>
       </c>
       <c r="V20" t="n">
+        <v>-0.03023222421086391</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.001362848956093288</v>
+      </c>
+      <c r="X20" t="n">
         <v>-1.318912018775364</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Y20" t="n">
         <v>-0.6383455064458143</v>
       </c>
     </row>
